--- a/data/processed/educators_list.xlsx
+++ b/data/processed/educators_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>firstName</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lastName</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Classroom/Environment</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Educator Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Educator Email ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Educator Type</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>env1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>env2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>env3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>env4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>env5</t>
         </is>
@@ -499,33 +504,38 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Gayathri</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>gayathriv@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Gayathri V</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>gayathriv@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -536,33 +546,38 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Nivedita</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nivedita@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Nivedita Ram</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nivedita@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -573,33 +588,38 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Shravani</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ramesh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>shravani@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Shravani  Ramesh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>shravani@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -610,33 +630,38 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Zeba</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Imtiaz</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>zeba@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Zeba Imtiaz</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>zeba@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -647,33 +672,38 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Gururaj</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Choudhari</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>guru@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gururaj Choudhari </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>guru@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -684,33 +714,38 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Usha</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Krishnamoorthy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>usha@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Usha Krishnamoorthy</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>usha@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -721,33 +756,38 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Sanya</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Singh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sanya@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Sanya Singh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sanya@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -762,46 +802,51 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Anil</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kumar S</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>anil@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>HSR - All Stars/Power/Amazing/Plumeria/Perinwinkle/Gulmohar 
 Whitefield - Cosmos/Periwinkle/Elementary/Adolescent</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Anil Kumar S</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>anil@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>HSR - All Stars</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Perinwinkle</t>
         </is>
@@ -820,46 +865,51 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Doreraju</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>HSR - All Stars/Power/Amazing/Plumeria/Perinwinkle/Gulmohar 
 Whitefield - Cosmos/Periwinkle/Elementary/Adolescent</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Doreraju G</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>HSR - All Stars</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Perinwinkle</t>
         </is>
@@ -878,47 +928,52 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Salam</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Anilkumar Singh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>HSR - All Stars/Power/Amazing
 Whitefield - Elementary/Adolescent</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Salam Anilkumar Singh</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Not available</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>HSR - All Stars</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Amazing
 Whitefield - Elementary</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Adolescent</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -929,33 +984,38 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Archana</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Nair</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>archana@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Archana Nair</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>archana@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -966,33 +1026,38 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Dewanshi</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rawat</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dewanshi@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dewanshi Rawat</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>dewanshi@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1003,33 +1068,38 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Tharani</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Ranganathan</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>tharani@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tharani Ranganathan</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>tharani@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1040,33 +1110,38 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Geetha</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Arvind</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>geetha@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Geetha Arvind</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>geetha@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1077,33 +1152,38 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Naina</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>naina@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Naina N</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>naina@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,33 +1194,38 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Trupthi</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Krishnan</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>trupthi@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Trupthi Krishnan</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>trupthi@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1151,37 +1236,42 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Ramkumar</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ram@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Amazing/Power</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ramkumar V</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ram@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1192,37 +1282,42 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Sandhya</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Raani</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>sandhya@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Amazing/Power</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Sandhya Raani</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>sandhya@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1233,41 +1328,46 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Sonika</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Rana</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>sonika@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Amazing/Power/All Stars</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Sonika Rana</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>sonika@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Amazing</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>All Stars</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1278,33 +1378,38 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Bhumika</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Devendra</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>bhumika@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Bhumika Devendra</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>bhumika@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1315,33 +1420,38 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Srineethi</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Menon</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>srineethi@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Srineethi Menon</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>srineethi@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1352,33 +1462,38 @@
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Sreeshyla</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Subash</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sreeshyla@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Sreeshyla Subash</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>sreeshyla@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1389,33 +1504,38 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Kokila</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Priya</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>kokila@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Kokila Priya</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>kokila@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1426,33 +1546,38 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Ramya</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vijayachandran</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ramya@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Ramya Vijayachandran</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ramya@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1463,33 +1588,38 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Vidhya</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Santhosh</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>vidhya@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Vidhya Santhosh</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>vidhya@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1500,33 +1630,38 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Ranjeta</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ranjeta@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Ranjeta GA</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ranjeta@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1537,33 +1672,38 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Hemapriya</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>hema@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Hemapriya TS</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>hema@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1574,41 +1714,46 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Sushmitha</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>sushmitha@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Periwinkle/Plumeria/Gulmohar</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Sushmitha BN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>sushmitha@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1619,45 +1764,50 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Yamini</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Vukkadala</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>yamini@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Periwinkle/Plumeria/Gulmohar/Parijat</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Yamini Vukkadala</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>yamini@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Periwinkle</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Plumeria</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Gulmohar</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1668,33 +1818,38 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Amrita</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Maitra</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>amrita@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Amrita Maitra</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>amrita@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1705,33 +1860,38 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Sajitha</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kandathil</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sajitha@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Sajitha Kandathil</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>sajitha@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1742,33 +1902,38 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Shubhangi</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Shinde</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>shubhangi@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Shubhangi Shinde</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>shubhangi@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1779,33 +1944,38 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Yogitha</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>yogitha@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Yogitha M</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>yogitha@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Parijat</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1816,33 +1986,38 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Boby</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Boruah</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>boby@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Boby Boruah</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>boby@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1853,45 +2028,50 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Jyoti</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Dubey</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>jyoti@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Cosmos/Perwinkle/Elementary/Adolescent</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Jyoti Dubey</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>jyoti@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Adolescent</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1902,37 +2082,42 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Sharada</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Naykodi</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>sharada@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Cosmos/Perwinkle</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Sharada Naykodi</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>sharada@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1943,33 +2128,38 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Hima</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Brijeshkumar Savaj</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>hima@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Hima Brijeshkumar Savaj</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>hima@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1980,33 +2170,38 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Sabeena</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Ibrahim</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sabeena@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Sabeena Ibrahim</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sabeena@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2017,37 +2212,42 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Vidhya</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Shankari</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>vidhya@pepschoolv2.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Perwinkle/Elementary</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Vidhya Shankari</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>vidhya@pepschoolv2.com</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2058,33 +2258,34 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
+          <t>K.V.Ponnamma</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ponnamma@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">K.V.Ponnamma </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ponnamma@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2095,33 +2296,38 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Flovia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mary Xavier</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>flovia@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Flovia Mary Xavier </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>flovia@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2132,41 +2338,46 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Berger</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Michelle Amritha</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>amritha@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Cosmos/Perwinkle/Elementary</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berger Michelle Amritha </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>amritha@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Elementary</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2177,37 +2388,42 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
+          <t>Antara</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Iyer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>antara@accelschool.in</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Cosmos/Perwinkle</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Antara Iyer</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>antara@accelschool.in</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Cosmos</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>Perwinkle</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2218,33 +2434,38 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Sowmya</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sowmya@ribbons.education</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Adonis</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Sowmya N</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>sowmya@ribbons.education</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Adonis</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2255,33 +2476,38 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Haripriya</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sahu</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">haripriya@ribbons.education </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Adonis</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Haripriya Sahu</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">haripriya@ribbons.education </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Adonis</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2292,33 +2518,38 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Madhushree</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PC</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">madhushree@ribbons.education </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Madhushree PC</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">madhushree@ribbons.education </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2329,33 +2560,38 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Nalini</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>nalini@ribbons.education</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Nalini BA</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>nalini@ribbons.education</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2366,33 +2602,38 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Swetha</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Hirematam</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>swetha@ribbons.education</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Swetha Hirematam</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>swetha@ribbons.education</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2403,33 +2644,38 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
+          <t>R.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Amirtha Lakshmi</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>amirtha.lakshmi@ribbons.education</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R. Amirtha Lakshmi</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>amirtha.lakshmi@ribbons.education</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Argus</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
